--- a/SpringMVC/源码分析和其它资料/视图解析源码.xlsx
+++ b/SpringMVC/源码分析和其它资料/视图解析源码.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\67557\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8605E0E7-FE4E-4270-B9A7-0B543B5D2F57}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3EE5C9A-0308-4742-9432-B47900E9BF6B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -119,6 +119,270 @@
         <a:xfrm>
           <a:off x="0" y="0"/>
           <a:ext cx="18266666" cy="43476190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>248</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>373946</xdr:colOff>
+      <xdr:row>282</xdr:row>
+      <xdr:rowOff>31641</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7DA11504-4A00-47B9-84B5-E8EC74F93761}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="22860" y="43502580"/>
+          <a:ext cx="10714286" cy="5952381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>283</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>84419</xdr:colOff>
+      <xdr:row>316</xdr:row>
+      <xdr:rowOff>149753</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E85774C-B629-4841-863B-0471FA277D65}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="49598580"/>
+          <a:ext cx="10447619" cy="5933333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>317</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>46324</xdr:colOff>
+      <xdr:row>349</xdr:row>
+      <xdr:rowOff>29775</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2B3C9AB-3856-4AE3-AF50-3118163B047D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="55557420"/>
+          <a:ext cx="10409524" cy="5638095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>350</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>513143</xdr:colOff>
+      <xdr:row>387</xdr:row>
+      <xdr:rowOff>153475</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{523D84E5-1F24-47F2-90A2-8EA82AABF9E4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="61341000"/>
+          <a:ext cx="9657143" cy="6638095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>388</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>360686</xdr:colOff>
+      <xdr:row>425</xdr:row>
+      <xdr:rowOff>77285</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="图片 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0A92652-71A9-4519-B636-D4395339E5A2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="68000880"/>
+          <a:ext cx="10114286" cy="6561905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>426</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>513067</xdr:colOff>
+      <xdr:row>538</xdr:row>
+      <xdr:rowOff>18499</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="图片 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{960B57A3-E800-42D2-847B-50A1165FC818}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="74660760"/>
+          <a:ext cx="10266667" cy="19647619"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -395,7 +659,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A407" workbookViewId="0">
+      <selection activeCell="A427" sqref="A427"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData/>
